--- a/artifacts.xlsx
+++ b/artifacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陽陽\Desktop\測試\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA10C6D-4CDA-4AC6-9620-4FF09427613F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCE3F54-A3EF-42B6-B1A1-41A9F786AEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="H193" sqref="H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4715,7 +4715,7 @@
         <v>72</v>
       </c>
       <c r="C161" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D161" t="s">
         <v>78</v>
@@ -5497,7 +5497,7 @@
         <v>72</v>
       </c>
       <c r="C195" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D195" t="s">
         <v>78</v>
